--- a/我的创作/财务/证券投资/股票/A股行业信息统计.xlsx
+++ b/我的创作/财务/证券投资/股票/A股行业信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="12000"/>
+    <workbookView windowWidth="26500" windowHeight="11500"/>
   </bookViews>
   <sheets>
     <sheet name="A股行业统计" sheetId="3" r:id="rId1"/>
@@ -711,9 +711,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
@@ -740,6 +740,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -747,11 +755,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -763,37 +778,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -807,19 +801,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -832,7 +825,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -854,17 +855,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -899,7 +899,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,7 +953,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,13 +971,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,67 +1037,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,31 +1061,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,37 +1079,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,6 +1126,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1137,15 +1146,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1208,135 +1208,135 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1706,12 +1706,12 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="20.6785714285714" customWidth="1"/>
+    <col min="1" max="1" width="30.9285714285714" customWidth="1"/>
     <col min="2" max="2" width="36.75" customWidth="1"/>
     <col min="3" max="3" width="21.875" style="1" customWidth="1"/>
   </cols>
